--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -380,7 +380,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:H3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -389,8 +389,8 @@
     <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2"/>
-    <x:row r="2" spans="1:2">
+    <x:row r="1" spans="1:8"/>
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -398,7 +398,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2"/>
+    <x:row r="3" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -384,10 +384,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8"/>
     <x:row r="2" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -68,21 +68,28 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -386,16 +393,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8"/>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s">
+    <x:row r="1" spans="1:2"/>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8"/>
+    <x:row r="3" spans="1:2"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -68,28 +68,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -395,10 +388,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -400,14 +400,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -26,7 +26,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -389,7 +389,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/DeletingColumns.xlsx
@@ -76,19 +76,19 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
